--- a/citations/works_published_brill.xlsx
+++ b/citations/works_published_brill.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,37 +552,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4307993374</t>
+          <t>https://openalex.org/W4324031766</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A Closer Look at the Sixteenth-century Ambraser Heldenbuch</t>
+          <t>Genuine Explanation and the Strong Minimalist Thesis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A Closer Look at the Sixteenth-century Ambraser Heldenbuch</t>
+          <t>Genuine Explanation and the Strong Minimalist Thesis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Abstract This study concerns a late medieval manuscript, the Ambraser Heldenbuch , created by Hans Ried for Emperor Maximilian I between 1504 and 1516. The recent facsimile edition makes it much easier to probe the critical question why this volume was not printed and what makes it stand out so much in the context of the early modern book market. The inclusion of the anonymous verse narrative Mauritius von Craûn (ca. 1220–1240) allows for more trenchant analyses concerning the patron and his interest in these literary works. The study takes into view the emperor’s strong concern with his afterlife, the paradoxical aspects determining that novella, and the contrast of this text copied here, very oddly, for the first time with the more popular literary works offered on the early modern book market. At a time when the printing press was increasingly conquering the book business, luxury bibliophile items continued to be produced as manuscripts. It might well be that the current book market finds a parallel in this phenomenon, with the electronic book pushing traditionally printed books aside. In fact, until today, we still resort to the manuscript in special cases, such as deeds, wills, licenses, and other documents.</t>
+          <t>Abstract The goal of theoretical inquiry is explanation: Why this, and not that? In the study of language, search for explanatory theory proceeds at two levels: for individual languages (a generative grammar in the broad sense) and for the general faculty of language fl ( ug ), the latter apparently a true species property, common to humans and without significant analogue in the animal world. ug must meet several conditions: learnability, evolvability, coverage. These conditions appear to conflict, and are far more severe than had earlier been supposed. A solution to the conundrum would be satisfaction of smt for ug combined with recourse to language-independent principles of computational efficiency, with diversity sequestered in components of language subject to simple algorithmic search. For the first time, hopes for such an outcome seem to be on the horizon, with significant implications if the hopes can be realized. I will outline some current work on these topics.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2023-01-25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Amsterdamer Beiträge zur älteren Germanistik</t>
+          <t>Cognitive Semantics</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210206867</t>
+          <t>https://openalex.org/S4210197614</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -592,27 +592,37 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0165-7305</t>
+          <t>2352-6408</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/18756719-12340267</t>
+          <t>https://doi.org/10.1163/23526416-bja10040</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://brill.com/downloadpdf/journals/cose/8/3/article-p347_002.pdf</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>347</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>365</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -621,14 +631,19 @@
         </is>
       </c>
       <c r="S2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>https://brill.com/downloadpdf/journals/cose/8/3/article-p347_002.pdf</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -640,19 +655,19 @@
         </is>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4307993374</t>
+          <t>https://api.openalex.org/works?filter=cites:W4324031766</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/18756719-12340267</t>
+          <t>https://doi.org/10.1163/23526416-bja10040</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -670,37 +685,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4281866998</t>
+          <t>https://openalex.org/W4388460035</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wucher als Thema bei spätmittelalterlichen didaktischen Autoren</t>
+          <t>Consciousness Is Quantum State Reduction Which Creates the Flow of Time</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wucher als Thema bei spätmittelalterlichen didaktischen Autoren</t>
+          <t>Consciousness Is Quantum State Reduction Which Creates the Flow of Time</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Abstract We have often heard in medieval sources the vicious and violent accusation of Jews being usurers who terribly exploited their Christian debtors. Indeed, loaning money or giving credits was one of the major, if not almost only option for Jews to earn a living in the late Middle Ages, though we have recently learned that even that concept is not quite true. Nevertheless, usury was traditionally associated with Jews, as medieval authors consistently emphasized. However, when we comb through the evidence of thirteenth-century didactic literature, we normally do not discover Jews as involved in that business, even though usury is commonly condemned vehemently. This forces us to acknowledge that the discourse on usury was already fully in swing when the public did not even associate it with Jews. The later accusation was hence the result of deliberate strategies by Christian bankers who needed an effective screen to divert attention from their own financial businesses.</t>
+          <t>Abstract In neuroscience, the flow of time is a conscious experience produced by the brain. But in physics, time is either a process, or a dimension in four-dimensional spacetime geometry. Could all three explanations be correct? The Penrose–Hameroff ‘Orch OR’ theory suggests consciousness is a sequence of discrete, irreversible quantum state reductions occurring at an objective threshold (‘objective reduction’, ‘OR’) a process in fundamental spacetime geometry. These ‘self-collapses’ of the quantum wavefunction are ‘orchestrated’ in microtubules inside brain neurons. Each Orch OR event selects microtubule states which purposefully regulate neuronal functions, and provide sequences of ‘NOW’ moments of conscious experience. Connected to fundamental spacetime geometry by Penrose ‘OR’, consciousness is quantum state reduction, a set of irreversible steps which ‘ratchet forward’ in the fine scale geometry of the universe, creating a flow of time.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Amsterdamer Beiträge zur älteren Germanistik</t>
+          <t>Timing &amp; Time Perception</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210206867</t>
+          <t>https://openalex.org/S4210181418</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -710,27 +725,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0165-7305</t>
+          <t>2213-445X</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/18756719-12340250</t>
+          <t>https://doi.org/10.1163/22134468-bja10098</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://brill.com/downloadpdf/view/journals/time/aop/article-10.1163-22134468-bja10098/article-10.1163-22134468-bja10098.pdf</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>158</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>167</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -739,14 +769,19 @@
         </is>
       </c>
       <c r="S3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>https://brill.com/downloadpdf/view/journals/time/aop/article-10.1163-22134468-bja10098/article-10.1163-22134468-bja10098.pdf</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -758,19 +793,19 @@
         </is>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4281866998</t>
+          <t>https://api.openalex.org/works?filter=cites:W4388460035</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/18756719-12340250</t>
+          <t>https://doi.org/10.1163/22134468-bja10098</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -788,37 +823,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4293589631</t>
+          <t>https://openalex.org/W4313596414</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dissociable Roles of Theta and Alpha in Sub-Second and Supra-Second Time Reproduction: An Investigation of their Links to Depression and Anxiety</t>
+          <t>Mummy Labels: A Witness to the Use and Processing of Wood in Roman Egypt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dissociable Roles of Theta and Alpha in Sub-Second and Supra-Second Time Reproduction: An Investigation of their Links to Depression and Anxiety</t>
+          <t>Mummy Labels: A Witness to the Use and Processing of Wood in Roman Egypt</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Abstract A growing collection of observations has demonstrated the presence of multiple neural oscillations participating in human temporal cognition and psychiatric pathologies such as depression and anxiety. However, there remains a gap in the literature regarding the specific roles of these neural oscillations during interval timing, and how these oscillatory activities might vary with the different levels of mental health. The current study examined the participation of the frontal midline theta and occipital alpha oscillations, both of which are prevalent cortical oscillatory markers frequently reported in working memory and time perception paradigms. Participants performed a time reproduction task in the sub- (400, 600, 800 ms) and supra-second timescales (1600, 1800, 2000 ms) while undergoing scalp EEG recordings. Anxiety and depression levels were measured via self-report mental health inventories. Time–frequency analysis of scalp EEG revealed that both frontal midline and occipital alpha oscillations were engaged during the encoding of the durations. Furthermore, we observed that the correlational relationship between frontal midline theta power and the reproduction performance in the sub-second range was modulated by state anxiety. In contrast, the correlational relationship between occipital alpha and the reproduction performance of supra-second intervals was modulated by depression and trait anxiety. The results offer insights on how alpha and theta oscillations differentially play a role in interval timing and how mental health further differentially relates these neural oscillations to sub- and supra-second timescales.</t>
+          <t>Abstract Mummy labels are relics found in large quantities in Egypt, often in an excellent state of preservation (like most woods preserved in arid environments). As a result, they are widespread in Roman Egyptian collections of many museums. These labels reflect funerary practices that possess Egyptian and Roman influences and are an important source of historical and archaeological information. These corpora of mummy labels offer several possibilities for investigation. The inscriptions on these labels have been the subject of an international project (Death on the Nile) in which all accessible objects were recorded in a database. However, the potential of these funerary objects extend beyond the inscriptions to the methods of manufacturing and cutting, the choice of species used, and their dendrochronological potential to better define their chronology and possibly their provenance. The study of mummy labels allows us to propose a new typology, some forms of which seem to be limited to certain necropolises. Mummy labels, whether made by the family of the deceased or by specific workshops, show that their realizations vary greatly, ranging from coarse specimens to others with beautiful detailing. They are made from endemic as well as imported species, which are symbolic of long-distance trade, especially for conifer trees, which are well represented. Their dendrochronological potential has also been demonstrated in numerous studies, some of which have allowed the identification of labels from the same tree, supported by inscriptions attesting to the same family relationship.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Timing &amp; Time Perception</t>
+          <t>International Journal of Wood Culture</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210181418</t>
+          <t>https://openalex.org/S4210185514</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -828,17 +863,22 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2213-445X</t>
+          <t>2772-3186</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/22134468-bja10061</t>
+          <t>https://doi.org/10.1163/27723194-bja10017</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://brill.com/downloadpdf/journals/time/aop/article-10.1163-22134468-bja10061/article-10.1163-22134468-bja10061.pdf</t>
+          <t>https://brill.com/downloadpdf/journals/ijwc/aop/article-10.1163-27723194-bja10017/article-10.1163-27723194-bja10017.pdf</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -848,22 +888,22 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>192</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>223</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="S4" t="b">
@@ -874,12 +914,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://brill.com/downloadpdf/journals/time/aop/article-10.1163-22134468-bja10061/article-10.1163-22134468-bja10061.pdf</t>
+          <t>https://brill.com/downloadpdf/journals/ijwc/aop/article-10.1163-27723194-bja10017/article-10.1163-27723194-bja10017.pdf</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -891,19 +931,19 @@
         </is>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4293589631</t>
+          <t>https://api.openalex.org/works?filter=cites:W4313596414</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/22134468-bja10061</t>
+          <t>https://doi.org/10.1163/27723194-bja10017</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -921,32 +961,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4297003285</t>
+          <t>https://openalex.org/W4385310714</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Bishan Commune and the Practice of Socially Engaged Art in Rural China , by Corlin, Mai &amp;amp; Socially Engaged Art in Contemporary China: Voices from Below , by Wang, Meiqin</t>
+          <t>The Virtues of Sustainability, edited by Jason Kawall</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The Bishan Commune and the Practice of Socially Engaged Art in Rural China , by Corlin, Mai &amp;amp; Socially Engaged Art in Contemporary China: Voices from Below , by Wang, Meiqin</t>
+          <t>The Virtues of Sustainability, edited by Jason Kawall</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Religion and the Arts</t>
+          <t>Journal of Moral Philosophy</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://openalex.org/S188947811</t>
+          <t>https://openalex.org/S96509893</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -956,32 +996,32 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1079-9265</t>
+          <t>1740-4681</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/15685292-02604003</t>
+          <t>https://doi.org/10.1163/17455243-20030008</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>362</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>365</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="S5" t="b">
@@ -1007,16 +1047,16 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4297003285</t>
+          <t>https://api.openalex.org/works?filter=cites:W4385310714</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/15685292-02604003</t>
+          <t>https://doi.org/10.1163/17455243-20030008</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1034,37 +1074,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4309289600</t>
+          <t>https://openalex.org/W4386686640</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>On Bread and National Ruin</t>
+          <t>Homoerotic and Homosexual Perspectives in Medieval Poetry and Verse Narratives: Indirect Evidence of a Hidden Discourse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>On Bread and National Ruin</t>
+          <t>Homoerotic and Homosexual Perspectives in Medieval Poetry and Verse Narratives: Indirect Evidence of a Hidden Discourse</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Abstract This article explores a reactionary, and ultimately failed, medical dietary movement that sought to counter the influence of Western nutritional sciences at the turn of the twentieth century. Its supporters looked to the early modern past to create a vision of traditional Japanese foodways based on whole grains, unpolished rice, and locally grown vegetables, a nutritional regimen they called cerealism. In articulating a Japanese national diet, cerealism offered a new promise to not only recapture Japan’s food culture but its national subjectivity by envisioning native eating habits that could build both superior physique and quality of character. The intrusion of the Western staples of bread and meat, supporters feared, could cause the downfall of the Japanese nation on bodily, spiritual, and economic grounds. Cerealism thus sought to upend the universal claims of Western medical science by posing a simple question: Was there such a thing as Japanese nutrition?</t>
+          <t>Abstract Although it proves to be a difficult task, we still can identify more literary texts from the Middle Ages addressing homoerotic love than we might have expected. Even when poets voiced severe criticism and radically condemned homosexuality, their comments serve us well to identify more specifically the actual discourse behind the official scene. Although legal and Church authorities consistently characterized ‘sodomy’ as one of the worst sins a Christian could commit, since late antiquity, and certainly throughout the Middle Ages, the phenomenon, a biological fact, existed, of course, and was also addressed in veiled or open language. This article examines a selection of relevant literary and didactic works that shed more light on this issue.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Asian Medicine</t>
+          <t>Amsterdamer Beiträge zur älteren Germanistik</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://openalex.org/S13889178</t>
+          <t>https://openalex.org/S4210206867</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1074,27 +1114,27 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1573-420X</t>
+          <t>0165-7305</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/15734218-12341517</t>
+          <t>https://doi.org/10.1163/18756719-12340294</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>234</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>249</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1125,16 +1165,16 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4309289600</t>
+          <t>https://api.openalex.org/works?filter=cites:W4386686640</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/15734218-12341517</t>
+          <t>https://doi.org/10.1163/18756719-12340294</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1146,6 +1186,237 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4388943180</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Doctrinal Engagements and Disengagements: Yongming Yanshou and His Legacies</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Doctrinal Engagements and Disengagements: Yongming Yanshou and His Legacies</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Abstract This paper looks at the vexed relationship of doctrine, or teaching (C. jiao /K. kyo /J. kyō 教 ) in the three kindred traditions subsumed under the rubric of the Sino-East Asian graph 禪 , known through their distinctive pronunciations in modern languages as Chan, Sŏn, and Zen. While the stipulation of these traditions as ‘a special/separate transmission outside the teachings’; (jiaowai biechuan 教外別傳 ) presumes independence from Mahayana doctrinal teachings, the reality, as we know, was much more complicated. In this paper, I use Yongming Yanshou 永明延壽 (904–975/6), one of the most prominent Chan figures to promote doctrinal engagement, as a barometer to look at how doctrinal engagements and disengagements are regarded throughout each tradition. Perspectives on Yanshou, a figure at once revered and marginalized, unlock key features of each of these three interconnected traditions, what they share and how they disagree. Fundamentally, perspectives on doctrinal engagements and disengagements are rooted in seminal Chan disputes over the nature and value of Buddhist teaching, and Yanshou is a conduit for these disputes. Given the theme of the conference, ‘How Zen Became Chan’; I also look at the discrepancies these disputes reveal between modern Rinzai Zen orthodoxy’s defining of Zen in the modern world and the practice of Chan in China and Sŏn in Korea. The options that these discrepancies reveal are indicative of the relevance of doctrinal entanglements and disentanglements to the contemporary Chan, Sŏn, and Zen worlds.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Journal of Chan Buddhism</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4210237834</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Brill</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2589-7160</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1163/25897179-12340020</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>2023</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4388943180</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1163/25897179-12340020</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AI7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4389207160</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Art, Allegory, and the Rise of Shiism in Iran, 1487–1565, written by Chad Kia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Art, Allegory, and the Rise of Shiism in Iran, 1487–1565, written by Chad Kia</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Shii Studies Review</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4210224839</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Brill</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2468-2462</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1163/24682470-12340096</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>2023</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4389207160</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1163/24682470-12340096</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AI8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/citations/works_published_brill.xlsx
+++ b/citations/works_published_brill.xlsx
@@ -685,37 +685,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388460035</t>
+          <t>https://openalex.org/W4313596414</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Consciousness Is Quantum State Reduction Which Creates the Flow of Time</t>
+          <t>Mummy Labels: A Witness to the Use and Processing of Wood in Roman Egypt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Consciousness Is Quantum State Reduction Which Creates the Flow of Time</t>
+          <t>Mummy Labels: A Witness to the Use and Processing of Wood in Roman Egypt</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Abstract In neuroscience, the flow of time is a conscious experience produced by the brain. But in physics, time is either a process, or a dimension in four-dimensional spacetime geometry. Could all three explanations be correct? The Penrose–Hameroff ‘Orch OR’ theory suggests consciousness is a sequence of discrete, irreversible quantum state reductions occurring at an objective threshold (‘objective reduction’, ‘OR’) a process in fundamental spacetime geometry. These ‘self-collapses’ of the quantum wavefunction are ‘orchestrated’ in microtubules inside brain neurons. Each Orch OR event selects microtubule states which purposefully regulate neuronal functions, and provide sequences of ‘NOW’ moments of conscious experience. Connected to fundamental spacetime geometry by Penrose ‘OR’, consciousness is quantum state reduction, a set of irreversible steps which ‘ratchet forward’ in the fine scale geometry of the universe, creating a flow of time.</t>
+          <t>Abstract Mummy labels are relics found in large quantities in Egypt, often in an excellent state of preservation (like most woods preserved in arid environments). As a result, they are widespread in Roman Egyptian collections of many museums. These labels reflect funerary practices that possess Egyptian and Roman influences and are an important source of historical and archaeological information. These corpora of mummy labels offer several possibilities for investigation. The inscriptions on these labels have been the subject of an international project (Death on the Nile) in which all accessible objects were recorded in a database. However, the potential of these funerary objects extend beyond the inscriptions to the methods of manufacturing and cutting, the choice of species used, and their dendrochronological potential to better define their chronology and possibly their provenance. The study of mummy labels allows us to propose a new typology, some forms of which seem to be limited to certain necropolises. Mummy labels, whether made by the family of the deceased or by specific workshops, show that their realizations vary greatly, ranging from coarse specimens to others with beautiful detailing. They are made from endemic as well as imported species, which are symbolic of long-distance trade, especially for conifer trees, which are well represented. Their dendrochronological potential has also been demonstrated in numerous studies, some of which have allowed the identification of labels from the same tree, supported by inscriptions attesting to the same family relationship.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Timing &amp; Time Perception</t>
+          <t>International Journal of Wood Culture</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210181418</t>
+          <t>https://openalex.org/S4210185514</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -725,17 +725,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2213-445X</t>
+          <t>2772-3186</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/22134468-bja10098</t>
+          <t>https://doi.org/10.1163/27723194-bja10017</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://brill.com/downloadpdf/view/journals/time/aop/article-10.1163-22134468-bja10098/article-10.1163-22134468-bja10098.pdf</t>
+          <t>https://brill.com/downloadpdf/journals/ijwc/aop/article-10.1163-27723194-bja10017/article-10.1163-27723194-bja10017.pdf</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -750,22 +750,22 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>192</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>223</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="S3" t="b">
@@ -776,16 +776,16 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://brill.com/downloadpdf/view/journals/time/aop/article-10.1163-22134468-bja10098/article-10.1163-22134468-bja10098.pdf</t>
+          <t>https://brill.com/downloadpdf/journals/ijwc/aop/article-10.1163-27723194-bja10017/article-10.1163-27723194-bja10017.pdf</t>
         </is>
       </c>
       <c r="W3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -800,12 +800,12 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4388460035</t>
+          <t>https://api.openalex.org/works?filter=cites:W4313596414</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/22134468-bja10098</t>
+          <t>https://doi.org/10.1163/27723194-bja10017</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -823,37 +823,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4313596414</t>
+          <t>https://openalex.org/W4388460035</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mummy Labels: A Witness to the Use and Processing of Wood in Roman Egypt</t>
+          <t>Consciousness Is Quantum State Reduction Which Creates the Flow of Time</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mummy Labels: A Witness to the Use and Processing of Wood in Roman Egypt</t>
+          <t>Consciousness Is Quantum State Reduction Which Creates the Flow of Time</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Abstract Mummy labels are relics found in large quantities in Egypt, often in an excellent state of preservation (like most woods preserved in arid environments). As a result, they are widespread in Roman Egyptian collections of many museums. These labels reflect funerary practices that possess Egyptian and Roman influences and are an important source of historical and archaeological information. These corpora of mummy labels offer several possibilities for investigation. The inscriptions on these labels have been the subject of an international project (Death on the Nile) in which all accessible objects were recorded in a database. However, the potential of these funerary objects extend beyond the inscriptions to the methods of manufacturing and cutting, the choice of species used, and their dendrochronological potential to better define their chronology and possibly their provenance. The study of mummy labels allows us to propose a new typology, some forms of which seem to be limited to certain necropolises. Mummy labels, whether made by the family of the deceased or by specific workshops, show that their realizations vary greatly, ranging from coarse specimens to others with beautiful detailing. They are made from endemic as well as imported species, which are symbolic of long-distance trade, especially for conifer trees, which are well represented. Their dendrochronological potential has also been demonstrated in numerous studies, some of which have allowed the identification of labels from the same tree, supported by inscriptions attesting to the same family relationship.</t>
+          <t>Abstract In neuroscience, the flow of time is a conscious experience produced by the brain. But in physics, time is either a process, or a dimension in four-dimensional spacetime geometry. Could all three explanations be correct? The Penrose–Hameroff ‘Orch OR’ theory suggests consciousness is a sequence of discrete, irreversible quantum state reductions occurring at an objective threshold (‘objective reduction’, ‘OR’) a process in fundamental spacetime geometry. These ‘self-collapses’ of the quantum wavefunction are ‘orchestrated’ in microtubules inside brain neurons. Each Orch OR event selects microtubule states which purposefully regulate neuronal functions, and provide sequences of ‘NOW’ moments of conscious experience. Connected to fundamental spacetime geometry by Penrose ‘OR’, consciousness is quantum state reduction, a set of irreversible steps which ‘ratchet forward’ in the fine scale geometry of the universe, creating a flow of time.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>International Journal of Wood Culture</t>
+          <t>Timing &amp; Time Perception</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210185514</t>
+          <t>https://openalex.org/S4210181418</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -863,17 +863,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2772-3186</t>
+          <t>2213-445X</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/27723194-bja10017</t>
+          <t>https://doi.org/10.1163/22134468-bja10098</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://brill.com/downloadpdf/journals/ijwc/aop/article-10.1163-27723194-bja10017/article-10.1163-27723194-bja10017.pdf</t>
+          <t>https://brill.com/downloadpdf/view/journals/time/aop/article-10.1163-22134468-bja10098/article-10.1163-22134468-bja10098.pdf</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -888,22 +888,22 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>158</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>167</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S4" t="b">
@@ -914,16 +914,16 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://brill.com/downloadpdf/journals/ijwc/aop/article-10.1163-27723194-bja10017/article-10.1163-27723194-bja10017.pdf</t>
+          <t>https://brill.com/downloadpdf/view/journals/time/aop/article-10.1163-22134468-bja10098/article-10.1163-22134468-bja10098.pdf</t>
         </is>
       </c>
       <c r="W4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -938,12 +938,12 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4313596414</t>
+          <t>https://api.openalex.org/works?filter=cites:W4388460035</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/27723194-bja10017</t>
+          <t>https://doi.org/10.1163/22134468-bja10098</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1192,37 +1192,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388943180</t>
+          <t>https://openalex.org/W4389207160</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Doctrinal Engagements and Disengagements: Yongming Yanshou and His Legacies</t>
+          <t>Art, Allegory, and the Rise of Shiism in Iran, 1487–1565, written by Chad Kia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Doctrinal Engagements and Disengagements: Yongming Yanshou and His Legacies</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Abstract This paper looks at the vexed relationship of doctrine, or teaching (C. jiao /K. kyo /J. kyō 教 ) in the three kindred traditions subsumed under the rubric of the Sino-East Asian graph 禪 , known through their distinctive pronunciations in modern languages as Chan, Sŏn, and Zen. While the stipulation of these traditions as ‘a special/separate transmission outside the teachings’; (jiaowai biechuan 教外別傳 ) presumes independence from Mahayana doctrinal teachings, the reality, as we know, was much more complicated. In this paper, I use Yongming Yanshou 永明延壽 (904–975/6), one of the most prominent Chan figures to promote doctrinal engagement, as a barometer to look at how doctrinal engagements and disengagements are regarded throughout each tradition. Perspectives on Yanshou, a figure at once revered and marginalized, unlock key features of each of these three interconnected traditions, what they share and how they disagree. Fundamentally, perspectives on doctrinal engagements and disengagements are rooted in seminal Chan disputes over the nature and value of Buddhist teaching, and Yanshou is a conduit for these disputes. Given the theme of the conference, ‘How Zen Became Chan’; I also look at the discrepancies these disputes reveal between modern Rinzai Zen orthodoxy’s defining of Zen in the modern world and the practice of Chan in China and Sŏn in Korea. The options that these discrepancies reveal are indicative of the relevance of doctrinal entanglements and disentanglements to the contemporary Chan, Sŏn, and Zen worlds.</t>
+          <t>Art, Allegory, and the Rise of Shiism in Iran, 1487–1565, written by Chad Kia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Journal of Chan Buddhism</t>
+          <t>Shii Studies Review</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210237834</t>
+          <t>https://openalex.org/S4210224839</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1232,27 +1227,27 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2589-7160</t>
+          <t>2468-2462</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/25897179-12340020</t>
+          <t>https://doi.org/10.1163/24682470-12340096</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>409</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>412</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1287,12 +1282,12 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4388943180</t>
+          <t>https://api.openalex.org/works?filter=cites:W4389207160</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/25897179-12340020</t>
+          <t>https://doi.org/10.1163/24682470-12340096</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1310,32 +1305,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389207160</t>
+          <t>https://openalex.org/W4388943180</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Art, Allegory, and the Rise of Shiism in Iran, 1487–1565, written by Chad Kia</t>
+          <t>Doctrinal Engagements and Disengagements: Yongming Yanshou and His Legacies</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Art, Allegory, and the Rise of Shiism in Iran, 1487–1565, written by Chad Kia</t>
+          <t>Doctrinal Engagements and Disengagements: Yongming Yanshou and His Legacies</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Abstract This paper looks at the vexed relationship of doctrine, or teaching (C. jiao /K. kyo /J. kyō 教 ) in the three kindred traditions subsumed under the rubric of the Sino-East Asian graph 禪 , known through their distinctive pronunciations in modern languages as Chan, Sŏn, and Zen. While the stipulation of these traditions as ‘a special/separate transmission outside the teachings’; (jiaowai biechuan 教外別傳 ) presumes independence from Mahayana doctrinal teachings, the reality, as we know, was much more complicated. In this paper, I use Yongming Yanshou 永明延壽 (904–975/6), one of the most prominent Chan figures to promote doctrinal engagement, as a barometer to look at how doctrinal engagements and disengagements are regarded throughout each tradition. Perspectives on Yanshou, a figure at once revered and marginalized, unlock key features of each of these three interconnected traditions, what they share and how they disagree. Fundamentally, perspectives on doctrinal engagements and disengagements are rooted in seminal Chan disputes over the nature and value of Buddhist teaching, and Yanshou is a conduit for these disputes. Given the theme of the conference, ‘How Zen Became Chan’; I also look at the discrepancies these disputes reveal between modern Rinzai Zen orthodoxy’s defining of Zen in the modern world and the practice of Chan in China and Sŏn in Korea. The options that these discrepancies reveal are indicative of the relevance of doctrinal entanglements and disentanglements to the contemporary Chan, Sŏn, and Zen worlds.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Shii Studies Review</t>
+          <t>Journal of Chan Buddhism</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210224839</t>
+          <t>https://openalex.org/S4210237834</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1345,27 +1345,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2468-2462</t>
+          <t>2589-7160</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/24682470-12340096</t>
+          <t>https://doi.org/10.1163/25897179-12340020</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>35</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>67</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1400,12 +1400,12 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4389207160</t>
+          <t>https://api.openalex.org/works?filter=cites:W4388943180</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/24682470-12340096</t>
+          <t>https://doi.org/10.1163/25897179-12340020</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
